--- a/biology/Microbiologie/Assilina/Assilina.xlsx
+++ b/biology/Microbiologie/Assilina/Assilina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assilina est un genre de foraminifères benthiques de la classe des Globothalamea et de l'ordre des Rotaliida, sous-ordre des Rotaliina, super-famille des Nummulitoidea et famille des Nummulitidae[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assilina est un genre de foraminifères benthiques de la classe des Globothalamea et de l'ordre des Rotaliida, sous-ordre des Rotaliina, super-famille des Nummulitoidea et famille des Nummulitidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Catalogue of Life le donne pour un sous-genre, appartenant au genre Nummulites qui dépend du genre Operculina (es) (d'Orbigny, 1826)[4].
-La banque de données WORMS lui donne le rang de genre ; le nom accepté est Operculina d'Orbigny, 1826[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Catalogue of Life le donne pour un sous-genre, appartenant au genre Nummulites qui dépend du genre Operculina (es) (d'Orbigny, 1826).
+La banque de données WORMS lui donne le rang de genre ; le nom accepté est Operculina d'Orbigny, 1826.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plusieurs synonymes existent[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plusieurs synonymes existent :
 Neooperculinoides Golev, 1961 † (synonyme mineur subjectif selon Loeblich &amp; Tappan, 1987)
 Nummulina (Assiline) d'Orbigny, 1826 (vernaculaire)
 Nummulites (Assilina) Reuss, 1862 (Nomen translatum, selon Loeblich &amp; Tappan (1987))
 Operculina (Assilina) Schaub, 1981 (Nomen translatum, selon Loeblich &amp; Tappan, 1987)
 Operculina (Frilla) de Gregorio, 1894 † (synonyme mineur subjectif selon Loeblich &amp; Tappan, 1987)
-Tambareauella Boukhary &amp; Abd El Naby, 2019 † (synonyme mineur subjectif selon Serra-Kiel et al. (2020) et selon une communication personnelle de Pignatti (2021))[1]</t>
+Tambareauella Boukhary &amp; Abd El Naby, 2019 † (synonyme mineur subjectif selon Serra-Kiel et al. (2020) et selon une communication personnelle de Pignatti (2021))</t>
         </is>
       </c>
     </row>
@@ -579,19 +595,21 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son espèce type est Assilina depressa[2],[1],[5], accepté comme Nummulites planospira Boubée, 1831 †[6] ; accepté comme Nummulites spira Roissy, 1805 †[7] : accepté comme Assilina spira (Roissy, 1805) †[8] (type par désignation subséquente)[1].
-La banque de données WORMS liste quatre espèces principales[1] :
-Assilina ammonoides (Gronovius, 1781)[9], accepté comme Operculina ammonoides (Gronovius, 1781)[10] (selon Willem Renema, septembre 2017)[1]
-Assilina discoidalis (d'Orbigny dans Guérin-Méneville, 1832)[11], représenté comme Operculina discoidalis (d'Orbigny dans Guérin-Méneville, 1832)[12] (selon Hohenegger, 2011)[1]
-Assilina heterosteginoides (Hofker, 1933)[13], accepté comme Planoperculina heterosteginoides (Hofker, 1933)
-Assilina nitida †[14],[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son espèce type est Assilina depressa accepté comme Nummulites planospira Boubée, 1831 † ; accepté comme Nummulites spira Roissy, 1805 † : accepté comme Assilina spira (Roissy, 1805) † (type par désignation subséquente).
+La banque de données WORMS liste quatre espèces principales :
+Assilina ammonoides (Gronovius, 1781), accepté comme Operculina ammonoides (Gronovius, 1781) (selon Willem Renema, septembre 2017)
+Assilina discoidalis (d'Orbigny dans Guérin-Méneville, 1832), représenté comme Operculina discoidalis (d'Orbigny dans Guérin-Méneville, 1832) (selon Hohenegger, 2011)
+Assilina heterosteginoides (Hofker, 1933), accepté comme Planoperculina heterosteginoides (Hofker, 1933)
+Assilina nitida †,
 WORMS donne aussi « plus de 130 espèces, sous-espèces et variétés d'Assilina » (consulté en novembre 2021).
 A
 Assilina adrianensis †
 Assilina ammonea †
-Assilina ammonoides †[9], accepté comme Operculina ammonoides †[10]
+Assilina ammonoides †, accepté comme Operculina ammonoides †
 Assilina arenensis †
 Assilina aspera †
 Assilina assamica †
@@ -608,8 +626,8 @@
 D
 Assilina dandotica †
 Assilina davicsi †
-Assilina depressa †[5]
-Assilina discoidalis †[11]
+Assilina depressa †
+Assilina discoidalis †
 E
 Assilina exponens †
 Assilina exponens tenuimarginata †
@@ -639,20 +657,20 @@
 M
 Assilina madarazi †
 Assilina major †
-Assilina major punctulata †[15]
+Assilina major punctulata †
 Assilina mamillata †
-Assilina mamillata istriana[16]
+Assilina mamillata istriana
 Assilina medanica †
 Assilina minor †
 Assilina monachalis †
 N
 Assilina natnmalensis †
-Assilina nitida †[14]
+Assilina nitida †
 O
 Assilina orbitoidea †
-Assilina orientalis †[17]
-Assilina orientalis iranica †[18]
-Assilina orientalis orientalis †[19]
+Assilina orientalis †
+Assilina orientalis iranica †
+Assilina orientalis orientalis †
 P
 Assilina pamiri †
 Assilina papillata †
@@ -673,8 +691,8 @@
 Assilina samashanica †
 Assilina schamutica †
 Assilina spinosa †
-Assilina spira †[8]
-Assilina spira abrardi †[20]
+Assilina spira †
+Assilina spira abrardi †
 Assilina spira corrugata †
 Assilina splendens †
 Assilina spinosa †
@@ -726,10 +744,12 @@
           <t>Étendue chronostratigraphique et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a existé depuis le Sélandien (milieu du Paléocène) jusqu'au Lutécien (milieu de l'Éocène)[2].
-Assilina exponens et Assilina spira se trouvent au Cachemire et au Pakistan où elles ont servi à dater des restes de Himalayacetus subathuensis, le plus ancien archéocète connu[21].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a existé depuis le Sélandien (milieu du Paléocène) jusqu'au Lutécien (milieu de l'Éocène).
+Assilina exponens et Assilina spira se trouvent au Cachemire et au Pakistan où elles ont servi à dater des restes de Himalayacetus subathuensis, le plus ancien archéocète connu.
 </t>
         </is>
       </c>
